--- a/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-107_システムフロー(サンプル＆ガイド).xlsx
+++ b/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-107_システムフロー(サンプル＆ガイド).xlsx
@@ -777,16 +777,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -901,6 +891,13 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3282,9 +3279,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="10"/>
       <c r="J31" s="15"/>
-      <c r="R31" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="R31" s="16"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="10"/>
@@ -3324,20 +3319,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S39" s="20"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3812,7 +3811,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4101,7 +4100,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -4109,7 +4108,7 @@
       <c r="G19" s="26"/>
       <c r="H19" s="27"/>
       <c r="I19" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
@@ -4185,7 +4184,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -4448,7 +4447,7 @@
       <c r="G29" s="26"/>
       <c r="H29" s="27"/>
       <c r="I29" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>

--- a/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-107_システムフロー(サンプル＆ガイド).xlsx
+++ b/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-107_システムフロー(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79D25CB-FB66-4F49-B3F0-A3ABEAB6E381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="10575" windowHeight="5700"/>
+    <workbookView xWindow="9660" yWindow="6030" windowWidth="18150" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -17,12 +18,22 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -775,17 +786,6 @@
   <si>
     <t>2018年08月29日</t>
     <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
   </si>
   <si>
     <r>
@@ -894,18 +894,11 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1296,21 +1289,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1340,6 +1318,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1420,6 +1413,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1441,7 +1437,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1539,52 +1541,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1605,7 +1561,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1692,7 +1654,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1784,7 +1752,13 @@
     <xdr:ext cx="902811" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1848,7 +1822,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="25" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -1898,7 +1878,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1995,7 +1981,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2087,7 +2079,13 @@
     <xdr:ext cx="1210588" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2151,7 +2149,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="7" idx="1"/>
@@ -2201,7 +2205,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -2246,7 +2256,13 @@
     <xdr:ext cx="800219" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2310,7 +2326,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2357,7 +2379,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2405,7 +2433,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2443,7 +2477,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2481,7 +2521,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2519,7 +2565,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="図 37"/>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2557,7 +2609,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="図 38"/>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2595,7 +2653,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="図 39"/>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2633,7 +2697,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="図 40"/>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2671,7 +2741,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="図 41"/>
+        <xdr:cNvPr id="42" name="図 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2709,7 +2785,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42"/>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2747,7 +2829,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="図 43"/>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2785,7 +2873,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44"/>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2823,7 +2917,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="図 45"/>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2866,7 +2966,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2899,7 +3005,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2941,7 +3047,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2974,9 +3080,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3009,6 +3132,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3184,7 +3324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3293,58 +3433,47 @@
       <c r="R32" s="19"/>
       <c r="S32" s="20"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="17"/>
       <c r="P36" s="17"/>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
       <c r="S36" s="20"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="21"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="20"/>
       <c r="S37" s="22"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="21"/>
       <c r="P38" s="20"/>
       <c r="Q38" s="21"/>
       <c r="R38" s="20"/>
       <c r="S38" s="21"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>46</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="23"/>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="21"/>
-      <c r="R39" s="21" t="s">
-        <v>47</v>
-      </c>
+      <c r="R39" s="21"/>
       <c r="S39" s="20"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3807,17 +3936,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3882,724 +4008,724 @@
       <c r="B14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="34" t="s">
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33" t="s">
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
     </row>
     <row r="15" spans="1:34" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B15" s="6">
         <v>1</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="39" t="s">
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="35" t="s">
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="37"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="32"/>
     </row>
     <row r="16" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5">
         <f>B15+1</f>
         <v>2</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28" t="s">
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
     </row>
     <row r="17" spans="2:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5">
         <f t="shared" ref="B17:B18" si="0">B16+1</f>
         <v>3</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28" t="s">
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="29"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
     </row>
     <row r="18" spans="2:34" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28" t="s">
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="27"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="38"/>
     </row>
     <row r="19" spans="2:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="5">
         <f>B18+1</f>
         <v>5</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
+      <c r="C19" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
     </row>
     <row r="20" spans="2:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="5">
         <f t="shared" ref="B20:B28" si="1">B19+1</f>
         <v>6</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
     </row>
     <row r="21" spans="2:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28" t="s">
+      <c r="C21" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="27"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="38"/>
     </row>
     <row r="22" spans="2:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28" t="s">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
     </row>
     <row r="23" spans="2:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28" t="s">
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
     </row>
     <row r="26" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="34" t="s">
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33" t="s">
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="33"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
     </row>
     <row r="27" spans="2:34" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B27" s="5">
         <f>B23+1</f>
         <v>10</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28" t="s">
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="35"/>
     </row>
     <row r="28" spans="2:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="5">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28" t="s">
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="35"/>
     </row>
     <row r="29" spans="2:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="5">
         <f>B28+1</f>
         <v>12</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="35"/>
     </row>
     <row r="30" spans="2:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="5">
         <f t="shared" ref="B30:B32" si="2">B29+1</f>
         <v>13</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28" t="s">
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="29"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="35"/>
+      <c r="AE30" s="35"/>
+      <c r="AF30" s="35"/>
+      <c r="AG30" s="35"/>
+      <c r="AH30" s="35"/>
     </row>
     <row r="31" spans="2:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="5">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28" t="s">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="29"/>
-      <c r="AG31" s="29"/>
-      <c r="AH31" s="29"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="35"/>
     </row>
     <row r="32" spans="2:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28" t="s">
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
-      <c r="AF32" s="29"/>
-      <c r="AG32" s="29"/>
-      <c r="AH32" s="29"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
     </row>
     <row r="34" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
@@ -4614,14 +4740,50 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AH14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:W15"/>
-    <mergeCell ref="X15:AA15"/>
-    <mergeCell ref="AB15:AH15"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:W22"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="AB22:AH22"/>
+    <mergeCell ref="AB20:AH20"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:W20"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:W21"/>
+    <mergeCell ref="AB21:AH21"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:W31"/>
+    <mergeCell ref="X31:AA31"/>
+    <mergeCell ref="AB31:AH31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:W32"/>
+    <mergeCell ref="X32:AA32"/>
+    <mergeCell ref="AB32:AH32"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:W29"/>
+    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="AB29:AH29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:W30"/>
+    <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="AB30:AH30"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I28:W28"/>
+    <mergeCell ref="X28:AA28"/>
+    <mergeCell ref="AB28:AH28"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:W23"/>
+    <mergeCell ref="X23:AA23"/>
+    <mergeCell ref="AB23:AH23"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="I27:W27"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="AB27:AH27"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:W26"/>
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="AB26:AH26"/>
     <mergeCell ref="AB19:AH19"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="I19:W19"/>
@@ -4638,50 +4800,14 @@
     <mergeCell ref="I18:W18"/>
     <mergeCell ref="X18:AA18"/>
     <mergeCell ref="AB18:AH18"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="I28:W28"/>
-    <mergeCell ref="X28:AA28"/>
-    <mergeCell ref="AB28:AH28"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:W23"/>
-    <mergeCell ref="X23:AA23"/>
-    <mergeCell ref="AB23:AH23"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="I27:W27"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="AB27:AH27"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:W26"/>
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="AB26:AH26"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I29:W29"/>
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="AB29:AH29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I30:W30"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="AB30:AH30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:W31"/>
-    <mergeCell ref="X31:AA31"/>
-    <mergeCell ref="AB31:AH31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:W32"/>
-    <mergeCell ref="X32:AA32"/>
-    <mergeCell ref="AB32:AH32"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:W22"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="AB22:AH22"/>
-    <mergeCell ref="AB20:AH20"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:W20"/>
-    <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:W21"/>
-    <mergeCell ref="AB21:AH21"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AH14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:W15"/>
+    <mergeCell ref="X15:AA15"/>
+    <mergeCell ref="AB15:AH15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -4698,7 +4824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
